--- a/BPS_FH_Dataset/7/phrases.xlsx
+++ b/BPS_FH_Dataset/7/phrases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Unplug\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Documents\GitHub\functional-harmony\BPS_FH_Dataset\7\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB1D53A-A016-4CDA-BA74-4D2E1A7F0251}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15640" windowHeight="5190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -245,7 +246,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -607,19 +608,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>-1</v>
       </c>
@@ -636,7 +637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>15</v>
       </c>
@@ -653,7 +654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>39</v>
       </c>
@@ -670,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>63</v>
       </c>
@@ -687,7 +688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>87</v>
       </c>
@@ -704,7 +705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>103</v>
       </c>
@@ -721,7 +722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>119</v>
       </c>
@@ -738,7 +739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>136</v>
       </c>
@@ -755,7 +756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>148.5</v>
       </c>
@@ -772,7 +773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>176</v>
       </c>
@@ -789,7 +790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>210</v>
       </c>
@@ -806,7 +807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>218</v>
       </c>
@@ -823,7 +824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>238</v>
       </c>
@@ -840,7 +841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>246</v>
       </c>
@@ -857,7 +858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>263</v>
       </c>
@@ -874,7 +875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>279</v>
       </c>
@@ -891,7 +892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>295</v>
       </c>
@@ -908,7 +909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>311</v>
       </c>
@@ -925,7 +926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>327</v>
       </c>
@@ -942,7 +943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>338</v>
       </c>
@@ -959,7 +960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>371</v>
       </c>
@@ -976,7 +977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>387</v>
       </c>
@@ -993,7 +994,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>403</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>418</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>434</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>451</v>
       </c>
@@ -1061,7 +1062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>495</v>
       </c>
@@ -1078,7 +1079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>511</v>
       </c>
@@ -1095,7 +1096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>535</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>559</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>583</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>599</v>
       </c>
@@ -1163,7 +1164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>615</v>
       </c>
@@ -1180,7 +1181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>632</v>
       </c>
@@ -1197,7 +1198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>644.5</v>
       </c>
@@ -1214,7 +1215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>672</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>706</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>714</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>734</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>742</v>
       </c>
@@ -1299,7 +1300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>759</v>
       </c>
@@ -1316,7 +1317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>775</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>791</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>807</v>
       </c>
@@ -1367,7 +1368,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>823</v>
       </c>
@@ -1384,7 +1385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>834</v>
       </c>
@@ -1401,7 +1402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>867</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>883</v>
       </c>
@@ -1435,7 +1436,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>899</v>
       </c>
@@ -1452,7 +1453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>914</v>
       </c>
@@ -1469,7 +1470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>930</v>
       </c>
@@ -1486,7 +1487,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>947</v>
       </c>
@@ -1503,7 +1504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <v>991</v>
       </c>
@@ -1520,7 +1521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>1024</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>1043</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>1059</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>1091</v>
       </c>
@@ -1588,7 +1589,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>1123</v>
       </c>
@@ -1605,12 +1606,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="4">
         <v>1161</v>
       </c>
       <c r="B59" s="4">
-        <v>1127</v>
+        <v>1227</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>35</v>
@@ -1622,9 +1623,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
-        <v>1127</v>
+        <v>1227</v>
       </c>
       <c r="B60" s="1">
         <v>1243</v>
@@ -1639,7 +1640,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>1243</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>1267</v>
       </c>
@@ -1673,7 +1674,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>1311</v>
       </c>
@@ -1690,7 +1691,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>1327</v>
       </c>
@@ -1707,7 +1708,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>1343</v>
       </c>
@@ -1724,7 +1725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>1360</v>
       </c>
@@ -1741,7 +1742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>1372.5</v>
       </c>
@@ -1758,7 +1759,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>1400</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>1426</v>
       </c>
@@ -1792,7 +1793,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>1434</v>
       </c>
@@ -1809,7 +1810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>1454</v>
       </c>
@@ -1826,7 +1827,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>1462</v>
       </c>
@@ -1843,7 +1844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>1483</v>
       </c>
@@ -1860,7 +1861,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>1499</v>
       </c>
@@ -1877,7 +1878,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>1515</v>
       </c>
@@ -1894,7 +1895,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>1531</v>
       </c>
@@ -1911,7 +1912,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>1547</v>
       </c>
@@ -1928,7 +1929,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>1558</v>
       </c>
@@ -1945,7 +1946,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>1591</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>1607</v>
       </c>
@@ -1979,7 +1980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>1634</v>
       </c>
@@ -1996,7 +1997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>1638</v>
       </c>
@@ -2013,7 +2014,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>1654</v>
       </c>
@@ -2030,7 +2031,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>1687</v>
       </c>
@@ -2047,7 +2048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>1715</v>
       </c>
@@ -2064,7 +2065,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>1803</v>
       </c>
@@ -2084,6 +2085,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>